--- a/DBCon1/bin/Debug/testread.xlsx
+++ b/DBCon1/bin/Debug/testread.xlsx
@@ -394,7 +394,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -415,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>88</v>
+        <v>88.22</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>

--- a/DBCon1/bin/Debug/testread.xlsx
+++ b/DBCon1/bin/Debug/testread.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="cc" sheetId="2" r:id="rId2"/>
+    <sheet name="ss" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="14">
   <si>
     <t>姓名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,6 +36,42 @@
   </si>
   <si>
     <t>四川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cc</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ff</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -393,7 +430,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -528,6 +565,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -540,7 +635,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -550,5 +645,6 @@
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>